--- a/newBingCrawler/labelData/Start.xlsx
+++ b/newBingCrawler/labelData/Start.xlsx
@@ -2,28 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 雲端硬碟\Projects\BingCrawler\LabelCompany\labelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\仲\companyEmbedding_Labeled\newBingCrawler\labelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
-    <sheet name="Start" sheetId="1" r:id="rId1"/>
+    <sheet name="瀚昌_銷貨_織品" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -938,7 +934,7 @@
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
